--- a/data/公交末班车.xlsx
+++ b/data/公交末班车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangyw15\Desktop\2023E\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA9029-1F38-466F-8AE9-CB2904F330C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3EA47A-608E-452E-AA16-FC5E2B726193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1250" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="1250" windowWidth="21300" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Massachusetts</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Missouri</t>
   </si>
 </sst>
 </file>
@@ -391,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -471,6 +483,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
